--- a/features2prediction/weebit/probs_avg_classification_evaluation.xlsx
+++ b/features2prediction/weebit/probs_avg_classification_evaluation.xlsx
@@ -29,22 +29,22 @@
     <t>mean_absolute_error</t>
   </si>
   <si>
+    <t>MLP 32</t>
+  </si>
+  <si>
     <t>MLP 16</t>
   </si>
   <si>
+    <t>GradientBoostingClassifier</t>
+  </si>
+  <si>
+    <t>MLP 64</t>
+  </si>
+  <si>
+    <t>LogisticRegressionCV</t>
+  </si>
+  <si>
     <t>MLP 128</t>
-  </si>
-  <si>
-    <t>MLP 64</t>
-  </si>
-  <si>
-    <t>GradientBoostingClassifier</t>
-  </si>
-  <si>
-    <t>LogisticRegressionCV</t>
-  </si>
-  <si>
-    <t>MLP 32</t>
   </si>
   <si>
     <t>RandomForestClassifier</t>
@@ -423,16 +423,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5206</v>
+        <v>0.5288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5206</v>
+        <v>0.5288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9147999999999999</v>
+        <v>0.9176</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6421</v>
+        <v>0.6332</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,16 +440,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5467</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5467</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="D3" t="n">
         <v>0.9107</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6249</v>
+        <v>0.6478</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,16 +457,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.522</v>
+        <v>0.5275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.522</v>
+        <v>0.5275</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9107</v>
+        <v>0.9093</v>
       </c>
       <c r="E4" t="n">
-        <v>0.636</v>
+        <v>0.6202</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,16 +474,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5275</v>
+        <v>0.5234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5275</v>
+        <v>0.5234</v>
       </c>
       <c r="D5" t="n">
         <v>0.9093</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6202</v>
+        <v>0.6371</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -508,16 +508,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5137</v>
+        <v>0.5247000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5137</v>
+        <v>0.5247000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>0.9066</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6412</v>
+        <v>0.6349</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/features2prediction/weebit/probs_avg_classification_evaluation.xlsx
+++ b/features2prediction/weebit/probs_avg_classification_evaluation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>accuracy_score</t>
   </si>
@@ -29,22 +29,28 @@
     <t>mean_absolute_error</t>
   </si>
   <si>
+    <t>explained_variance_score</t>
+  </si>
+  <si>
+    <t>r2_score</t>
+  </si>
+  <si>
+    <t>MLP 128</t>
+  </si>
+  <si>
     <t>MLP 32</t>
   </si>
   <si>
+    <t>GradientBoostingClassifier</t>
+  </si>
+  <si>
     <t>MLP 16</t>
   </si>
   <si>
-    <t>GradientBoostingClassifier</t>
-  </si>
-  <si>
     <t>MLP 64</t>
   </si>
   <si>
     <t>LogisticRegressionCV</t>
-  </si>
-  <si>
-    <t>MLP 128</t>
   </si>
   <si>
     <t>RandomForestClassifier</t>
@@ -396,7 +402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,7 +410,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,44 +423,62 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5288</v>
+        <v>0.5302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5288</v>
+        <v>0.5302</v>
       </c>
       <c r="D2" t="n">
         <v>0.9176</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.6279</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.5275</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.5275</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9107</v>
+        <v>0.9121</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.6342</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6064000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.5275</v>
@@ -468,61 +492,85 @@
       <c r="E4" t="n">
         <v>0.6202</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="n">
+        <v>0.6128</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5234</v>
+        <v>0.4986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5234</v>
+        <v>0.4986</v>
       </c>
       <c r="D5" t="n">
         <v>0.9093</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.6548</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5836</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6047</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
         <v>0.4547</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>0.4547</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9066</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5247000000000001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5247000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>0.9066</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.6932</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5633</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>0.4272</v>
@@ -535,6 +583,12 @@
       </c>
       <c r="E8" t="n">
         <v>0.7637</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4952</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4952</v>
       </c>
     </row>
   </sheetData>

--- a/features2prediction/weebit/probs_avg_classification_evaluation.xlsx
+++ b/features2prediction/weebit/probs_avg_classification_evaluation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>accuracy_score</t>
   </si>
@@ -26,6 +26,9 @@
     <t>threshold_socre</t>
   </si>
   <si>
+    <t>mean_squared_error</t>
+  </si>
+  <si>
     <t>mean_absolute_error</t>
   </si>
   <si>
@@ -35,25 +38,37 @@
     <t>r2_score</t>
   </si>
   <si>
+    <t>SVC rbf</t>
+  </si>
+  <si>
+    <t>MLP-deep</t>
+  </si>
+  <si>
     <t>MLP 128</t>
   </si>
   <si>
     <t>MLP 32</t>
   </si>
   <si>
+    <t>MLP 64</t>
+  </si>
+  <si>
     <t>GradientBoostingClassifier</t>
   </si>
   <si>
+    <t>LogisticRegressionCV</t>
+  </si>
+  <si>
     <t>MLP 16</t>
   </si>
   <si>
-    <t>MLP 64</t>
-  </si>
-  <si>
-    <t>LogisticRegressionCV</t>
-  </si>
-  <si>
     <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>SVC poly</t>
+  </si>
+  <si>
+    <t>SVC sigmoid</t>
   </si>
 </sst>
 </file>
@@ -402,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,7 +425,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,166 +444,294 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5302</v>
+        <v>0.5907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5302</v>
+        <v>0.5907</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9176</v>
+        <v>0.9245</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6279</v>
+        <v>0.6524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6112</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.6635</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7059</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6352</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5179</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5179</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9135</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7732</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9107</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6389</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5988</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5288</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5288</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9107</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7655</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6314</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6041</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
         <v>0.5275</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C7" t="n">
         <v>0.5275</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.9121</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6342</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6064000000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5275</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5275</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D7" t="n">
         <v>0.9093</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E7" t="n">
+        <v>0.7488</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.6202</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G7" t="n">
         <v>0.6128</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H7" t="n">
         <v>0.6128</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9093</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6548</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5836</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5371</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5371</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.908</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6047</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.6047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
         <v>0.4547</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>0.4547</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.9066</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
+        <v>0.8453000000000001</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.6932</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G8" t="n">
         <v>0.5633</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H8" t="n">
         <v>0.5628</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5027</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5027</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8997000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7844</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6435999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5944</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
         <v>0.4272</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C10" t="n">
         <v>0.4272</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D10" t="n">
         <v>0.8709</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E10" t="n">
+        <v>0.9762</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.7637</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G10" t="n">
         <v>0.4952</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H10" t="n">
         <v>0.4952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8668</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8852</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7135</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5422</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4162</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4162</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8228</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.1919</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8269</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3841</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3836</v>
       </c>
     </row>
   </sheetData>

--- a/features2prediction/weebit/probs_avg_classification_evaluation.xlsx
+++ b/features2prediction/weebit/probs_avg_classification_evaluation.xlsx
@@ -44,28 +44,28 @@
     <t>MLP-deep</t>
   </si>
   <si>
+    <t>MLP 32</t>
+  </si>
+  <si>
+    <t>MLP 16</t>
+  </si>
+  <si>
+    <t>MLP 64</t>
+  </si>
+  <si>
     <t>MLP 128</t>
   </si>
   <si>
-    <t>MLP 32</t>
-  </si>
-  <si>
-    <t>MLP 64</t>
-  </si>
-  <si>
     <t>GradientBoostingClassifier</t>
   </si>
   <si>
     <t>LogisticRegressionCV</t>
   </si>
   <si>
-    <t>MLP 16</t>
+    <t>SVC poly</t>
   </si>
   <si>
     <t>RandomForestClassifier</t>
-  </si>
-  <si>
-    <t>SVC poly</t>
   </si>
   <si>
     <t>SVC sigmoid</t>
@@ -453,25 +453,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5907</v>
+        <v>0.6511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5907</v>
+        <v>0.6511</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9245</v>
+        <v>0.9451000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6524</v>
+        <v>0.5214</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.4913</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6635</v>
+        <v>0.7305</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6626</v>
+        <v>0.7304</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -479,25 +479,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.592</v>
+        <v>0.6538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.592</v>
+        <v>0.6538</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9231</v>
+        <v>0.9409</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7059</v>
+        <v>0.5317</v>
       </c>
       <c r="F3" t="n">
-        <v>0.576</v>
+        <v>0.4945</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6352</v>
+        <v>0.7302</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6349</v>
+        <v>0.7251</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -505,25 +505,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5179</v>
+        <v>0.5989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5179</v>
+        <v>0.5989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9135</v>
+        <v>0.9341</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7732</v>
+        <v>0.5824</v>
       </c>
       <c r="F4" t="n">
-        <v>0.641</v>
+        <v>0.5427999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6007</v>
+        <v>0.6996</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6002</v>
+        <v>0.6988</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -531,25 +531,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.522</v>
+        <v>0.5755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.522</v>
+        <v>0.5755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9107</v>
+        <v>0.9327</v>
       </c>
       <c r="E5" t="n">
-        <v>0.776</v>
+        <v>0.5926</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6389</v>
+        <v>0.549</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5988</v>
+        <v>0.6935</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5987</v>
+        <v>0.6935</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -557,25 +557,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5288</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5288</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9107</v>
+        <v>0.9327</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7655</v>
+        <v>0.5933</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6314</v>
+        <v>0.5413</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6041</v>
+        <v>0.6936</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6041</v>
+        <v>0.6932</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -583,25 +583,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5275</v>
+        <v>0.5618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5275</v>
+        <v>0.5618</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9093</v>
+        <v>0.9272</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7488</v>
+        <v>0.6113</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6202</v>
+        <v>0.5628</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6128</v>
+        <v>0.6864</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6128</v>
+        <v>0.6839</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -609,25 +609,25 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4547</v>
+        <v>0.581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4547</v>
+        <v>0.581</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9066</v>
+        <v>0.9258</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8453000000000001</v>
+        <v>0.6101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6932</v>
+        <v>0.5532</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5633</v>
+        <v>0.6846</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5628</v>
+        <v>0.6845</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -635,25 +635,25 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5027</v>
+        <v>0.5453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5027</v>
+        <v>0.5453</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8997000000000001</v>
+        <v>0.9231</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7844</v>
+        <v>0.6372</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6435999999999999</v>
+        <v>0.5926</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5944</v>
+        <v>0.6709000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5943000000000001</v>
+        <v>0.6705</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -661,25 +661,25 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4272</v>
+        <v>0.5041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4272</v>
+        <v>0.5041</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8709</v>
+        <v>0.9052</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9762</v>
+        <v>0.7045</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7637</v>
+        <v>0.6256</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4952</v>
+        <v>0.6356000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4952</v>
+        <v>0.6356000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -687,25 +687,25 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4588</v>
+        <v>0.4286</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4588</v>
+        <v>0.4286</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8668</v>
+        <v>0.8997000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8852</v>
+        <v>0.8391</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7135</v>
+        <v>0.7178</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5422</v>
+        <v>0.5661</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5422</v>
+        <v>0.5661</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -713,25 +713,25 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4162</v>
+        <v>0.4739</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4162</v>
+        <v>0.4739</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8228</v>
+        <v>0.8791</v>
       </c>
       <c r="E12" t="n">
-        <v>1.1919</v>
+        <v>0.9139</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8269</v>
+        <v>0.7194</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3841</v>
+        <v>0.5279</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3836</v>
+        <v>0.5274</v>
       </c>
     </row>
   </sheetData>

--- a/features2prediction/weebit/probs_avg_classification_evaluation.xlsx
+++ b/features2prediction/weebit/probs_avg_classification_evaluation.xlsx
@@ -38,22 +38,22 @@
     <t>r2_score</t>
   </si>
   <si>
+    <t>MLP-deep</t>
+  </si>
+  <si>
     <t>SVC rbf</t>
   </si>
   <si>
-    <t>MLP-deep</t>
-  </si>
-  <si>
     <t>MLP 32</t>
   </si>
   <si>
+    <t>MLP 64</t>
+  </si>
+  <si>
+    <t>MLP 128</t>
+  </si>
+  <si>
     <t>MLP 16</t>
-  </si>
-  <si>
-    <t>MLP 64</t>
-  </si>
-  <si>
-    <t>MLP 128</t>
   </si>
   <si>
     <t>GradientBoostingClassifier</t>
@@ -453,25 +453,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6511</v>
+        <v>0.6484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6511</v>
+        <v>0.6484</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9451000000000001</v>
+        <v>0.9437</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5214</v>
+        <v>0.5122</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4913</v>
+        <v>0.4923</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7305</v>
+        <v>0.7362</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7304</v>
+        <v>0.7351</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -479,25 +479,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6538</v>
+        <v>0.6415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6538</v>
+        <v>0.6415</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9409</v>
+        <v>0.9423</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5317</v>
+        <v>0.5233</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4945</v>
+        <v>0.4904</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7302</v>
+        <v>0.7296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7251</v>
+        <v>0.7294</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -505,25 +505,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5989</v>
+        <v>0.603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5989</v>
+        <v>0.603</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9341</v>
+        <v>0.9382</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5824</v>
+        <v>0.5815</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5427999999999999</v>
+        <v>0.5436</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6996</v>
+        <v>0.6993</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6988</v>
+        <v>0.6993</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -531,25 +531,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5755</v>
+        <v>0.5893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5755</v>
+        <v>0.5893</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9327</v>
+        <v>0.9368</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5926</v>
+        <v>0.5772</v>
       </c>
       <c r="F5" t="n">
-        <v>0.549</v>
+        <v>0.542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6935</v>
+        <v>0.7017</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6935</v>
+        <v>0.7015</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -557,25 +557,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6002999999999999</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6002999999999999</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9327</v>
+        <v>0.9298999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5933</v>
+        <v>0.5858</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5413</v>
+        <v>0.5348000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6936</v>
+        <v>0.6972</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6932</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -583,25 +583,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5618</v>
+        <v>0.5742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5618</v>
+        <v>0.5742</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9272</v>
+        <v>0.9298999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6113</v>
+        <v>0.593</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5628</v>
+        <v>0.5548</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6864</v>
+        <v>0.6936</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6839</v>
+        <v>0.6933</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -615,19 +615,19 @@
         <v>0.581</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9258</v>
+        <v>0.9217</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6101</v>
+        <v>0.6152</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5532</v>
+        <v>0.5595</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6846</v>
+        <v>0.6819</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6845</v>
+        <v>0.6819</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -635,25 +635,25 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5453</v>
+        <v>0.5591</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5453</v>
+        <v>0.5591</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9231</v>
+        <v>0.9217</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6372</v>
+        <v>0.6321</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5926</v>
+        <v>0.5889</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6709000000000001</v>
+        <v>0.6734</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6705</v>
+        <v>0.6731</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -661,25 +661,25 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5041</v>
+        <v>0.5014</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5041</v>
+        <v>0.5014</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9052</v>
+        <v>0.9025</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7045</v>
+        <v>0.7088</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6256</v>
+        <v>0.6284</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6356000000000001</v>
+        <v>0.6335</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6356000000000001</v>
+        <v>0.6335</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -687,25 +687,25 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4286</v>
+        <v>0.4245</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4286</v>
+        <v>0.4245</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8997000000000001</v>
+        <v>0.8887</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8391</v>
+        <v>0.8569</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7178</v>
+        <v>0.7257</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5661</v>
+        <v>0.5569</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5661</v>
+        <v>0.5569</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -713,25 +713,25 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4739</v>
+        <v>0.4766</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4739</v>
+        <v>0.4766</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8791</v>
+        <v>0.8846000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9139</v>
+        <v>0.8937</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7194</v>
+        <v>0.6992</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5279</v>
+        <v>0.5384</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5274</v>
+        <v>0.5377999999999999</v>
       </c>
     </row>
   </sheetData>
